--- a/excels/Aventuras/Trad TftYP.xlsx
+++ b/excels/Aventuras/Trad TftYP.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Aventuras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB42E5A-2F3A-4900-A8DA-AD72B41D305C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="95" windowWidth="25349" windowHeight="11167"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="disease" sheetId="4" r:id="rId1"/>
+    <sheet name="object" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>name Español: TftYP-ES</t>
   </si>
@@ -26,12 +33,18 @@
   </si>
   <si>
     <t>Supertétanos</t>
+  </si>
+  <si>
+    <t>Gulthias Tree</t>
+  </si>
+  <si>
+    <t>El Árbol de Gulthias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,12 +95,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -129,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -162,9 +178,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,6 +230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,20 +422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,6 +449,41 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A053666-C97E-4F95-B876-F3E61F353786}">
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
